--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -85,13 +85,13 @@
 **Switched to this with the move to R4**
 Note that Blood Sugar is not part of FHIR core vital-signs.
 - must be marked with MHV app tag
-- must have vital-signs category
+- must have laboratory category
 - must have LOINC#2339-0 code
   - no longer using LOINC#2345-7 with move to FHIR R4
 - may have indication of fasting (LOINC#88365-2), or 2-hours after meal (LOINC#87422-2)
 - must have effectiveDateTime
 - must have valueQuantity with units only of mg/dL
-  - must be between 10 &lt; n &lt; 1000
+  - must be between 10 &lt;= n &lt;= 1000
 - must have status at final
 - must point at the patient
 - may have a method of clinical lab test, sterile lancet, transcutaneous, implant, or other
@@ -795,7 +795,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="vital-signs"/&gt;
+    &lt;code value="laboratory"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -901,6 +901,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://loinc.org"/&gt;
   &lt;code value="2339-0"/&gt;
+  &lt;display value="Glucose [Mass/volume] in Blood"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -910,6 +911,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://loinc.org"/&gt;
   &lt;code value="88365-2"/&gt;
+  &lt;display value="Glucose [Mass/volume] in Blood --pre-meal"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -919,6 +921,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://loinc.org"/&gt;
   &lt;code value="87422-2"/&gt;
+  &lt;display value="Glucose [Mass/volume] in Blood --post meal"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -949,7 +952,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -5819,7 +5822,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>90</v>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -93,6 +93,7 @@
   - no longer using LOINC#2345-7 with move to FHIR R4
 - may have indication of fasting (LOINC#88365-2), or 2-hours after meal (LOINC#87422-2)
 - must have effectiveDateTime
+  - others might use effectivePeriod
 - must have valueQuantity with units only of mg/dL
   - must be between 10 &lt;= n &lt;= 1000
 - must have status at final

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Measurements and simple assertions</t>
@@ -2371,16 +2375,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2445,16 +2449,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2465,10 +2469,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2479,7 +2483,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2488,19 +2492,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2550,13 +2554,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2585,10 +2589,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2599,7 +2603,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2608,16 +2612,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2668,19 +2672,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2703,10 +2707,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2717,7 +2721,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2729,13 +2733,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2786,13 +2790,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2810,7 +2814,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2821,14 +2825,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2847,16 +2851,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2894,19 +2898,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2918,7 +2922,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2930,7 +2934,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -2941,10 +2945,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2955,7 +2959,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2964,19 +2968,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3026,19 +3030,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3061,10 +3065,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3075,7 +3079,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3084,19 +3088,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3146,19 +3150,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3181,10 +3185,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3195,7 +3199,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3204,19 +3208,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3266,19 +3270,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3301,10 +3305,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3324,19 +3328,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3386,7 +3390,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3398,7 +3402,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3421,10 +3425,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3444,19 +3448,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3482,13 +3486,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3506,7 +3510,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3518,7 +3522,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3541,10 +3545,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3552,10 +3556,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3564,19 +3568,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3587,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3602,13 +3606,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3626,7 +3630,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3638,7 +3642,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3661,10 +3665,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3681,22 +3685,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3746,19 +3750,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3781,10 +3785,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3807,16 +3811,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3842,13 +3846,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3866,19 +3870,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -3901,21 +3905,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3927,16 +3931,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3986,19 +3990,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4010,7 +4014,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4021,14 +4025,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4047,16 +4051,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4106,7 +4110,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4130,7 +4134,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4141,10 +4145,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4167,13 +4171,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4224,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4236,7 +4240,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4259,10 +4263,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4279,19 +4283,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4342,7 +4346,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4354,7 +4358,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4377,10 +4381,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4400,20 +4404,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4462,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4474,22 +4478,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4497,14 +4501,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4520,20 +4524,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4582,7 +4586,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4594,19 +4598,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4617,14 +4621,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4640,19 +4644,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4702,7 +4706,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4714,19 +4718,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4737,10 +4741,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4748,34 +4752,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4785,7 +4789,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4800,13 +4804,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4824,34 +4828,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4859,10 +4863,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4870,10 +4874,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4885,19 +4889,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4907,7 +4911,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4922,13 +4926,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4946,7 +4950,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4962,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -4970,10 +4974,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4981,21 +4985,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -5004,22 +5008,22 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5044,13 +5048,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5068,45 +5072,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5117,7 +5121,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5129,13 +5133,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5186,13 +5190,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5210,7 +5214,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5221,14 +5225,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5247,16 +5251,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5294,19 +5298,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5318,7 +5322,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5330,7 +5334,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5341,10 +5345,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5352,10 +5356,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5364,22 +5368,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5416,17 +5420,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5438,7 +5442,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5447,10 +5451,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5461,23 +5465,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5486,22 +5490,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5511,7 +5515,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5550,7 +5554,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5562,7 +5566,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5571,10 +5575,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5585,13 +5589,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5601,7 +5605,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5610,22 +5614,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5635,7 +5639,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5674,7 +5678,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5686,7 +5690,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5695,10 +5699,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5709,13 +5713,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5725,7 +5729,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5734,22 +5738,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5759,7 +5763,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5798,7 +5802,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5810,7 +5814,7 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5819,10 +5823,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5833,10 +5837,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5847,7 +5851,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5856,22 +5860,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5920,19 +5924,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5941,10 +5945,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5955,10 +5959,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5969,7 +5973,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5978,22 +5982,22 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6042,34 +6046,34 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6077,10 +6081,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6100,19 +6104,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6162,7 +6166,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6174,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6183,13 +6187,13 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6197,14 +6201,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6220,22 +6224,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6284,34 +6288,34 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6319,21 +6323,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6342,22 +6346,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6394,44 +6398,44 @@
         <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6439,23 +6443,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6464,22 +6468,22 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6528,34 +6532,34 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6563,10 +6567,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6586,19 +6590,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6648,19 +6652,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6669,13 +6673,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6683,10 +6687,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6706,20 +6710,20 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6768,7 +6772,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6780,22 +6784,22 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6803,10 +6807,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6817,7 +6821,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6826,22 +6830,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6878,58 +6882,58 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -6939,7 +6943,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6948,22 +6952,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7012,45 +7016,45 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7061,7 +7065,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7073,13 +7077,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7130,13 +7134,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7154,7 +7158,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7165,14 +7169,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7191,16 +7195,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7238,19 +7242,19 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7262,7 +7266,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7274,7 +7278,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7285,10 +7289,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7299,7 +7303,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7308,22 +7312,22 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7339,10 +7343,10 @@
         <v>82</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>82</v>
@@ -7372,19 +7376,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7393,10 +7397,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7407,10 +7411,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7421,35 +7425,35 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>82</v>
@@ -7470,13 +7474,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7494,19 +7498,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7515,10 +7519,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7529,10 +7533,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7543,7 +7547,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7552,20 +7556,20 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7575,7 +7579,7 @@
         <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>82</v>
@@ -7614,19 +7618,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7635,10 +7639,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7649,10 +7653,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7663,7 +7667,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7672,20 +7676,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7734,19 +7738,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7755,10 +7759,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7769,10 +7773,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7783,7 +7787,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7792,22 +7796,22 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7856,19 +7860,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7877,10 +7881,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7891,10 +7895,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7917,19 +7921,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7954,13 +7958,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7978,19 +7982,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7999,10 +8003,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8013,14 +8017,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8039,19 +8043,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8076,13 +8080,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8100,7 +8104,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8112,33 +8116,33 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8149,7 +8153,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8161,19 +8165,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8222,7 +8226,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8234,7 +8238,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8243,10 +8247,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8257,10 +8261,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8283,16 +8287,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8318,13 +8322,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8342,45 +8346,45 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8391,7 +8395,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8403,19 +8407,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8440,11 +8444,11 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8462,19 +8466,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8483,10 +8487,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8497,10 +8501,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8523,16 +8527,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8582,45 +8586,45 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8643,16 +8647,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8702,45 +8706,45 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8763,19 +8767,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8824,7 +8828,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8836,7 +8840,7 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8845,10 +8849,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8859,10 +8863,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8873,7 +8877,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8885,13 +8889,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8942,13 +8946,13 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -8966,7 +8970,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8977,14 +8981,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9003,16 +9007,16 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9062,7 +9066,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9074,7 +9078,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9086,7 +9090,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9097,14 +9101,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9117,25 +9121,25 @@
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9184,7 +9188,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9196,7 +9200,7 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9208,7 +9212,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9219,10 +9223,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9233,7 +9237,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9245,13 +9249,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9302,19 +9306,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9323,10 +9327,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9337,10 +9341,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9351,7 +9355,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9363,13 +9367,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9420,19 +9424,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9441,10 +9445,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9455,10 +9459,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9469,7 +9473,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9481,19 +9485,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9518,13 +9522,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9542,31 +9546,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9577,10 +9581,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9603,19 +9607,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9640,13 +9644,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9664,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9676,19 +9680,19 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9699,10 +9703,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9713,7 +9717,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9725,17 +9729,17 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9784,19 +9788,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9808,7 +9812,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9819,10 +9823,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9833,7 +9837,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9845,13 +9849,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9902,19 +9906,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9923,10 +9927,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9937,10 +9941,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9960,19 +9964,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10022,7 +10026,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10034,7 +10038,7 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10043,10 +10047,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10057,10 +10061,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10080,19 +10084,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10142,7 +10146,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10154,7 +10158,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10163,10 +10167,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10177,10 +10181,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10200,22 +10204,22 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10264,7 +10268,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10276,7 +10280,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10285,10 +10289,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10299,10 +10303,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10313,7 +10317,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10325,13 +10329,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10382,13 +10386,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10406,7 +10410,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10417,14 +10421,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10443,16 +10447,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10502,7 +10506,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10514,7 +10518,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10526,7 +10530,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10537,14 +10541,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10557,25 +10561,25 @@
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10624,7 +10628,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10636,7 +10640,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10648,7 +10652,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10659,10 +10663,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10670,10 +10674,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10682,22 +10686,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10722,13 +10726,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10746,34 +10750,34 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -10781,10 +10785,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10795,7 +10799,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10804,22 +10808,22 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10868,45 +10872,45 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10917,7 +10921,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10929,19 +10933,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10966,13 +10970,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10990,19 +10994,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11011,10 +11015,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11025,14 +11029,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11051,19 +11055,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11088,13 +11092,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11112,7 +11116,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11124,33 +11128,33 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11176,16 +11180,16 @@
         <v>82</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11234,7 +11238,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11246,7 +11250,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11255,10 +11259,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV could Create/Update in PGHD for blood sugar measurements. Indicate fasting status as a code.
+    <t>A profile on the Observation that declares how MHV could Create in PGHD for blood sugar measurements. Indicate fasting status as a code.
 **Switched to this with the move to R4**
 Note that Blood Sugar is not part of FHIR core vital-signs.
 - must be marked with MHV app tag

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -294,6 +294,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -451,7 +455,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -471,7 +475,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1178,25 +1182,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1241,9 +1230,6 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1274,9 +1260,6 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1299,9 +1282,6 @@
   </si>
   <si>
     <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
   </si>
   <si>
     <t>Observation.value[x].system</t>
@@ -1324,9 +1304,6 @@
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -1740,7 +1717,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1974,10 +1951,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2167,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2176,7 +2153,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2446,19 +2423,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2469,10 +2446,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2483,7 +2460,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2492,19 +2469,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2554,13 +2531,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2589,10 +2566,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2603,7 +2580,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2612,16 +2589,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2672,19 +2649,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2707,10 +2684,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2721,7 +2698,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2733,13 +2710,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2790,13 +2767,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2814,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2825,14 +2802,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2851,16 +2828,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2898,19 +2875,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2922,7 +2899,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2934,7 +2911,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -2945,10 +2922,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2959,7 +2936,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2968,19 +2945,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3030,19 +3007,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3065,10 +3042,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3079,7 +3056,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3088,19 +3065,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3150,19 +3127,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3185,10 +3162,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3199,7 +3176,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3208,19 +3185,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3270,19 +3247,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3305,10 +3282,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3328,19 +3305,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3390,7 +3367,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3402,7 +3379,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3425,10 +3402,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3448,19 +3425,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3486,13 +3463,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3510,7 +3487,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3522,7 +3499,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3545,10 +3522,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3556,10 +3533,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3568,19 +3545,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3591,7 +3568,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3606,13 +3583,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3630,7 +3607,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3642,7 +3619,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3665,10 +3642,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3685,22 +3662,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3750,19 +3727,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3785,10 +3762,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3811,16 +3788,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3846,13 +3823,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3870,19 +3847,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -3905,21 +3882,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3931,16 +3908,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3990,19 +3967,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4014,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4025,14 +4002,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4051,16 +4028,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4110,7 +4087,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4134,7 +4111,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4145,10 +4122,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4171,13 +4148,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4228,7 +4205,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4240,7 +4217,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4263,10 +4240,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4283,19 +4260,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4346,7 +4323,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4358,7 +4335,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4381,10 +4358,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4404,20 +4381,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4466,7 +4443,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4478,22 +4455,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4501,14 +4478,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4524,20 +4501,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4586,7 +4563,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4598,19 +4575,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4621,14 +4598,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4644,19 +4621,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4706,7 +4683,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4718,19 +4695,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4741,10 +4718,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4752,34 +4729,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4789,7 +4766,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4804,13 +4781,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4828,34 +4805,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4863,10 +4840,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4874,10 +4851,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4889,19 +4866,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4911,7 +4888,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4926,13 +4903,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4950,7 +4927,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4962,7 +4939,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -4974,10 +4951,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4985,21 +4962,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -5008,22 +4985,22 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5048,13 +5025,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5072,45 +5049,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5121,7 +5098,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5133,13 +5110,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5190,13 +5167,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5214,7 +5191,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5225,14 +5202,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5251,16 +5228,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5298,19 +5275,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5322,7 +5299,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5334,7 +5311,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5345,10 +5322,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5356,10 +5333,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5368,22 +5345,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5420,17 +5397,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5442,7 +5419,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5451,10 +5428,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5465,23 +5442,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5490,22 +5467,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5515,7 +5492,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5554,7 +5531,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5566,7 +5543,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5575,10 +5552,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5589,13 +5566,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5605,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5614,22 +5591,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5639,7 +5616,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5678,7 +5655,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5690,7 +5667,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5699,10 +5676,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5713,13 +5690,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5729,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5738,22 +5715,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5763,7 +5740,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5802,7 +5779,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5814,7 +5791,7 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5823,10 +5800,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5837,10 +5814,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5851,7 +5828,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5860,22 +5837,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5924,19 +5901,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5945,10 +5922,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5959,10 +5936,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5973,7 +5950,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5982,22 +5959,22 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6046,34 +6023,34 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6081,10 +6058,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6104,19 +6081,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6166,7 +6143,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6178,7 +6155,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6187,13 +6164,13 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6201,14 +6178,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6224,22 +6201,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6288,34 +6265,34 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6323,21 +6300,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6346,22 +6323,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6398,44 +6375,44 @@
         <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6443,23 +6420,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6468,22 +6445,22 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6532,34 +6509,34 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6567,10 +6544,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6590,19 +6567,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6652,19 +6629,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6673,13 +6650,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6687,10 +6664,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6710,20 +6687,20 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6772,7 +6749,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6784,22 +6761,22 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6807,10 +6784,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6821,7 +6798,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6830,22 +6807,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6882,59 +6859,59 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C40" t="s" s="2">
         <v>364</v>
       </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6943,7 +6920,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6952,23 +6929,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7016,37 +6989,37 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -7054,18 +7027,18 @@
         <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7077,15 +7050,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7122,31 +7097,31 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7158,7 +7133,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7169,21 +7144,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7192,21 +7167,23 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>114</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7221,10 +7198,10 @@
         <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>82</v>
@@ -7242,31 +7219,31 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>120</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7275,10 +7252,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7289,10 +7266,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7303,92 +7280,92 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7397,10 +7374,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7411,10 +7388,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7425,41 +7402,39 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>82</v>
@@ -7474,13 +7449,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7498,19 +7473,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7519,10 +7494,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7533,10 +7508,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7547,7 +7522,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7556,20 +7531,20 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7579,7 +7554,7 @@
         <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>82</v>
@@ -7618,19 +7593,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7639,10 +7614,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7653,7 +7628,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>402</v>
@@ -7667,7 +7642,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7676,10 +7651,10 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>403</v>
@@ -7687,9 +7662,11 @@
       <c r="M46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7738,19 +7715,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7759,7 +7736,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>408</v>
@@ -7776,7 +7753,7 @@
         <v>409</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7787,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7796,22 +7773,22 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7836,13 +7813,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7860,19 +7837,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7881,10 +7858,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>399</v>
+        <v>193</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7895,14 +7872,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7921,19 +7898,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7958,13 +7935,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7982,56 +7959,56 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>192</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8043,19 +8020,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>241</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8080,13 +8057,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8104,7 +8081,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8116,25 +8093,25 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -8153,7 +8130,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8165,20 +8142,18 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8202,13 +8177,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8232,39 +8207,39 @@
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8275,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8287,18 +8262,20 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8322,13 +8299,11 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8346,37 +8321,37 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
@@ -8395,7 +8370,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8407,20 +8382,18 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O52" t="s" s="2">
         <v>460</v>
       </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8444,11 +8417,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8472,19 +8447,19 @@
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>462</v>
@@ -8496,15 +8471,15 @@
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8527,16 +8502,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8586,45 +8561,45 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8647,18 +8622,20 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8706,45 +8683,45 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>480</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8755,7 +8732,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8767,20 +8744,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>108</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8828,19 +8801,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8849,10 +8822,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8863,21 +8836,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8889,15 +8862,17 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8946,19 +8921,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8970,7 +8945,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8981,14 +8956,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>112</v>
+        <v>486</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9001,24 +8976,26 @@
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>114</v>
+        <v>487</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>115</v>
+        <v>488</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9066,7 +9043,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9078,7 +9055,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9090,7 +9067,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9101,46 +9078,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9188,19 +9161,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9209,10 +9182,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>192</v>
+        <v>497</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9223,10 +9196,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9237,7 +9210,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9249,13 +9222,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9306,19 +9279,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9327,10 +9300,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9341,10 +9314,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9355,7 +9328,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9367,16 +9340,20 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>500</v>
+        <v>242</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9400,13 +9377,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9424,31 +9401,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>509</v>
+        <v>428</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9459,10 +9436,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9473,7 +9450,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9485,19 +9462,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9522,13 +9499,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9546,31 +9523,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9581,10 +9558,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9595,7 +9572,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9607,7 +9584,7 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>241</v>
+        <v>519</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>520</v>
@@ -9615,11 +9592,9 @@
       <c r="M62" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9644,13 +9619,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9668,31 +9643,31 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9703,10 +9678,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9717,7 +9692,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9729,18 +9704,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>527</v>
+        <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9788,19 +9761,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9809,10 +9782,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9823,10 +9796,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9837,7 +9810,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9846,18 +9819,20 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>529</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9906,19 +9881,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9927,10 +9902,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9941,10 +9916,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9964,19 +9939,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10026,7 +10001,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10038,7 +10013,7 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10047,10 +10022,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10061,10 +10036,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10084,21 +10059,23 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10146,7 +10123,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10158,7 +10135,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10167,10 +10144,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10181,10 +10158,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10195,7 +10172,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10204,23 +10181,19 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>550</v>
+        <v>108</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10268,19 +10241,19 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10289,10 +10262,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>555</v>
+        <v>111</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10303,21 +10276,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10329,15 +10302,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10386,19 +10361,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10410,7 +10385,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10421,14 +10396,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>112</v>
+        <v>486</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10441,24 +10416,26 @@
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>114</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>115</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10506,7 +10483,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10518,7 +10495,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10530,7 +10507,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10541,45 +10518,45 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>116</v>
+        <v>554</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>497</v>
+        <v>257</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10604,13 +10581,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10628,34 +10605,34 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10663,10 +10640,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10674,10 +10651,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10686,22 +10663,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>241</v>
+        <v>557</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>561</v>
+        <v>356</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10726,13 +10703,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10750,45 +10727,45 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>262</v>
+        <v>362</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10799,7 +10776,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10808,22 +10785,22 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>565</v>
+        <v>242</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>355</v>
+        <v>563</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10848,13 +10825,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10872,56 +10849,56 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10933,19 +10910,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>571</v>
+        <v>421</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>572</v>
+        <v>422</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10970,13 +10947,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10994,49 +10971,49 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>192</v>
+        <v>427</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11055,19 +11032,19 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>429</v>
+        <v>568</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11092,13 +11069,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11116,7 +11093,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11128,146 +11105,24 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP75" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugar.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="568">
   <si>
     <t>Property</t>
   </si>
@@ -872,9 +872,6 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -5336,7 +5333,7 @@
         <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5351,16 +5348,16 @@
         <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5397,17 +5394,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5428,10 +5425,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5442,13 +5439,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>268</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5473,16 +5470,16 @@
         <v>147</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5492,7 +5489,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5531,7 +5528,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5552,10 +5549,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5566,13 +5563,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>268</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5597,16 +5594,16 @@
         <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5616,7 +5613,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5655,7 +5652,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5676,10 +5673,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5690,13 +5687,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>268</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5721,16 +5718,16 @@
         <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5740,7 +5737,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5779,7 +5776,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5800,10 +5797,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5843,16 +5840,16 @@
         <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5901,7 +5898,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5922,10 +5919,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5936,10 +5933,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5962,19 +5959,19 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6023,7 +6020,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6038,19 +6035,19 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6058,10 +6055,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6084,16 +6081,16 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6143,7 +6140,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6167,10 +6164,10 @@
         <v>262</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6178,14 +6175,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6204,19 +6201,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6265,7 +6262,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6280,19 +6277,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6300,14 +6297,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6326,19 +6323,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6375,17 +6372,17 @@
         <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6400,19 +6397,19 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6420,16 +6417,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="D36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6448,19 +6445,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6509,7 +6506,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6524,19 +6521,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6544,10 +6541,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6573,13 +6570,13 @@
         <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6629,7 +6626,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6650,13 +6647,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6664,10 +6661,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6690,17 +6687,17 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6749,7 +6746,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6764,19 +6761,19 @@
         <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6784,10 +6781,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6810,19 +6807,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6871,7 +6868,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6880,7 +6877,7 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6889,27 +6886,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7024,10 +7021,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7144,10 +7141,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7170,19 +7167,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7198,40 +7195,40 @@
         <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="V42" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="V42" t="s" s="2">
+      <c r="W42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7252,10 +7249,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7266,10 +7263,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7295,20 +7292,20 @@
         <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q43" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>82</v>
@@ -7332,28 +7329,28 @@
         <v>233</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7374,10 +7371,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7388,10 +7385,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7417,14 +7414,14 @@
         <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7434,46 +7431,46 @@
         <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7494,10 +7491,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7508,10 +7505,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7537,14 +7534,14 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7593,7 +7590,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7602,7 +7599,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7614,10 +7611,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7628,10 +7625,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7657,16 +7654,16 @@
         <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7715,7 +7712,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7736,10 +7733,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7750,10 +7747,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7779,16 +7776,16 @@
         <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7816,11 +7813,11 @@
         <v>151</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7837,7 +7834,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7846,7 +7843,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7861,7 +7858,7 @@
         <v>193</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7872,14 +7869,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7901,16 +7898,16 @@
         <v>242</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7938,11 +7935,11 @@
         <v>151</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7959,7 +7956,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7977,27 +7974,27 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8020,19 +8017,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8081,7 +8078,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8102,10 +8099,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8116,10 +8113,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8145,13 +8142,13 @@
         <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8180,11 +8177,11 @@
         <v>160</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8201,7 +8198,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8219,27 +8216,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8265,16 +8262,16 @@
         <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8303,7 +8300,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8321,7 +8318,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8342,10 +8339,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8356,10 +8353,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8382,16 +8379,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8441,7 +8438,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8459,27 +8456,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8502,16 +8499,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8561,7 +8558,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8579,27 +8576,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8622,19 +8619,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8683,7 +8680,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8695,19 +8692,19 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8718,10 +8715,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8836,10 +8833,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8956,14 +8953,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8985,16 +8982,16 @@
         <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9043,7 +9040,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9078,10 +9075,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9104,13 +9101,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9161,7 +9158,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9170,7 +9167,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9182,10 +9179,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9196,10 +9193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9222,13 +9219,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9279,7 +9276,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9288,7 +9285,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9300,10 +9297,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9314,10 +9311,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9343,16 +9340,16 @@
         <v>242</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9380,11 +9377,11 @@
         <v>174</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9419,13 +9416,13 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9436,10 +9433,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9465,16 +9462,16 @@
         <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9502,11 +9499,11 @@
         <v>160</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9523,7 +9520,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9541,13 +9538,13 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9558,10 +9555,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9584,17 +9581,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9643,7 +9640,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9667,7 +9664,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9678,10 +9675,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9707,10 +9704,10 @@
         <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9761,7 +9758,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9782,10 +9779,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9796,10 +9793,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9822,16 +9819,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9881,7 +9878,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9902,10 +9899,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9916,10 +9913,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9942,16 +9939,16 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10001,7 +9998,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10022,10 +10019,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10036,10 +10033,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10062,19 +10059,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10123,7 +10120,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10144,10 +10141,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10158,10 +10155,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10276,10 +10273,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10396,14 +10393,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10425,16 +10422,16 @@
         <v>114</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10483,7 +10480,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10518,10 +10515,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10547,13 +10544,13 @@
         <v>242</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>257</v>
@@ -10605,7 +10602,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>93</v>
@@ -10623,7 +10620,7 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>262</v>
@@ -10640,10 +10637,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10666,19 +10663,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10727,7 +10724,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10745,27 +10742,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10791,16 +10788,16 @@
         <v>242</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10828,11 +10825,11 @@
         <v>151</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10849,7 +10846,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10858,7 +10855,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10873,7 +10870,7 @@
         <v>193</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10884,14 +10881,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10913,16 +10910,16 @@
         <v>242</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10950,11 +10947,11 @@
         <v>151</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
       </c>
@@ -10971,7 +10968,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10989,27 +10986,27 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11035,16 +11032,16 @@
         <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="N74" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11093,7 +11090,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11114,10 +11111,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
